--- a/datos_full.xlsx
+++ b/datos_full.xlsx
@@ -5,25 +5,39 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abustamante\Desktop\dashboard-publicaciones-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abustamante\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5197E128-148A-4617-99ED-A3991128F9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43025EB-B7CB-45AF-925C-54F8AAE37FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$114</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="1233">
   <si>
     <t>Entidad</t>
   </si>
@@ -2794,9 +2808,6 @@
     <t>Gran impulso para la sostenibilidad – Economía Circular</t>
   </si>
   <si>
-    <t>1, 5, 10</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -2806,75 +2817,24 @@
     <t>1, 2</t>
   </si>
   <si>
-    <t>2, 9, 10</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>1, 2, 5</t>
-  </si>
-  <si>
-    <t>1, 5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1, 5, 8</t>
-  </si>
-  <si>
     <t>1, 10</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10</t>
-  </si>
-  <si>
-    <t>1, 2, 5, 8, 9, 10</t>
-  </si>
-  <si>
-    <t>6, 8</t>
-  </si>
-  <si>
-    <t>1, 8</t>
-  </si>
-  <si>
-    <t>1, 2, 5, 6, 8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2, 9</t>
-  </si>
-  <si>
-    <t>1, 2, 5, 6, 9</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1, 2, 3, 9, 10</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 7, 9, 10</t>
-  </si>
-  <si>
-    <t>2, 3, 9, 10</t>
-  </si>
-  <si>
     <t>2, 4</t>
   </si>
   <si>
-    <t>4, 6</t>
-  </si>
-  <si>
     <t>1, 3</t>
   </si>
   <si>
@@ -2884,21 +2844,6 @@
     <t>2, 3, 10</t>
   </si>
   <si>
-    <t>1, 2, 4, 6, 9</t>
-  </si>
-  <si>
-    <t>8, 10</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 5, 9, 10</t>
-  </si>
-  <si>
-    <t>2, 3, 9</t>
-  </si>
-  <si>
-    <t>1, 2, 5, 9</t>
-  </si>
-  <si>
     <t>4, 8</t>
   </si>
   <si>
@@ -3286,9 +3231,6 @@
     <t>BIOECONOMÍA, AGRICULTURA Y DESARROLLO RURAL, DESARROLLO SOSTENIBLE, CADENAS DE VALOR, ECONOMÍA CIRCULAR</t>
   </si>
   <si>
-    <t>POBREZA, ENERGÍA, DESARROLLO SOSTENIBLE,DESIGUALDAD, INFRAESTRUCTURA, VIVIENDA Y SERVICIOS BÁSICOS</t>
-  </si>
-  <si>
     <t>EMPLEO, CAMBIO ESTRUCTURAL,  DESARROLLO INDUSTRIAL, CADENAS DE VALOR, PRODUCTIVIDAD, CRECIMIENTO ECONÓMICO, DESARROLLO SOSTENIBLE</t>
   </si>
   <si>
@@ -3682,17 +3624,131 @@
     <t>El mayor énfasis estaría puesto en el sistema financiero y, en particular, en los bancos.</t>
   </si>
   <si>
-    <t>2,3,7</t>
-  </si>
-  <si>
     <t>1,10</t>
+  </si>
+  <si>
+    <t>Brechas:</t>
+  </si>
+  <si>
+    <t>Crecimiento económico bajo, volátil, excluyente y no sostenible con baja creación de empleo formal</t>
+  </si>
+  <si>
+    <t>Elevada desigualdad y baja movilidad y cohesión social</t>
+  </si>
+  <si>
+    <t>Brechas de protección social</t>
+  </si>
+  <si>
+    <t>Sistemas educativos y formación profesional débiles</t>
+  </si>
+  <si>
+    <t>Alta desigualdad de género</t>
+  </si>
+  <si>
+    <t>Brecha digital</t>
+  </si>
+  <si>
+    <t>Flujos migratorios intrarregionales crecientes en cantidad y diversidad</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Brechas Cecilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3) Importantes brechas en la protección social;  4) Sistemas educativos y de formación profesional débiles; 5) Desarrollo ambientalmente no sostenible y cambio climático; 6) Brecha digital; 7) Flujos migratorios intra-regionales crecientes en cantidad y diversidad; 8) Insuficiente integración económica regional; 9) Alta desigualdad de género; y 10) Espacios fiscales limitados y altos costos del financiamiento</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>9*</t>
+  </si>
+  <si>
+    <t>6*</t>
+  </si>
+  <si>
+    <t>7*</t>
+  </si>
+  <si>
+    <t>8*</t>
+  </si>
+  <si>
+    <t>2, 5, 10</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5, 10</t>
+  </si>
+  <si>
+    <t>2, 3, 5, 10</t>
+  </si>
+  <si>
+    <t>2, 3, 5</t>
+  </si>
+  <si>
+    <t>1, 6, 10</t>
+  </si>
+  <si>
+    <t>1, 2, 6</t>
+  </si>
+  <si>
+    <t>1, 6</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6, 5, 10</t>
+  </si>
+  <si>
+    <t>1, 2, 6, 5</t>
+  </si>
+  <si>
+    <t>1, 2, 6, 7, 5</t>
+  </si>
+  <si>
+    <t>4, 7</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 7, 5</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 8, 5, 10</t>
+  </si>
+  <si>
+    <t>2,3,8</t>
+  </si>
+  <si>
+    <t>1, 6, 9</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 6, 7, 8, 9, 5, 10</t>
+  </si>
+  <si>
+    <t>1, 2, 6, 9, 5, 10</t>
+  </si>
+  <si>
+    <t>7, 9</t>
+  </si>
+  <si>
+    <t>1, 9</t>
+  </si>
+  <si>
+    <t>1, 2, 6, 7, 9</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>ENERGÍA, DESARROLLO SOSTENIBLE,DESIGUALDAD, INFRAESTRUCTURA, VIVIENDA Y SERVICIOS BÁSICOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3716,13 +3772,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3752,7 +3821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3766,8 +3835,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4074,16 +4144,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="D98" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="69.77734375" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="18" width="8.88671875" customWidth="1"/>
@@ -4156,7 +4226,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
@@ -4215,19 +4285,19 @@
         <v>854</v>
       </c>
       <c r="S2" t="s">
-        <v>921</v>
+        <v>1215</v>
       </c>
       <c r="T2" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="U2" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="W2">
         <v>0.86954499909024285</v>
       </c>
       <c r="X2" t="s">
-        <v>1079</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -4283,20 +4353,20 @@
         <v>855</v>
       </c>
       <c r="S3" t="s">
-        <v>921</v>
+        <v>1215</v>
       </c>
       <c r="T3"/>
       <c r="U3" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="V3" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="W3">
         <v>0.93487619956855339</v>
       </c>
       <c r="X3" t="s">
-        <v>1080</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -4349,20 +4419,20 @@
         <v>856</v>
       </c>
       <c r="S4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="T4"/>
       <c r="U4" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="V4" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="W4">
         <v>0.90019982025226386</v>
       </c>
       <c r="X4" t="s">
-        <v>1081</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -4415,20 +4485,20 @@
         <v>857</v>
       </c>
       <c r="S5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="T5"/>
       <c r="U5" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="V5" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="W5">
         <v>0.87087071815077777</v>
       </c>
       <c r="X5" t="s">
-        <v>1157</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -4481,22 +4551,22 @@
         <v>858</v>
       </c>
       <c r="S6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T6" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U6" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="V6" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="W6">
         <v>0.84911116017721444</v>
       </c>
       <c r="X6" t="s">
-        <v>1158</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -4549,22 +4619,22 @@
         <v>859</v>
       </c>
       <c r="S7" t="s">
-        <v>925</v>
+        <v>1210</v>
       </c>
       <c r="T7" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U7" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="V7" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="W7">
         <v>0.93376988390778271</v>
       </c>
       <c r="X7" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -4620,20 +4690,20 @@
         <v>855</v>
       </c>
       <c r="S8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="T8"/>
       <c r="U8" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="V8" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="W8">
         <v>0.85012626068096397</v>
       </c>
       <c r="X8" t="s">
-        <v>1083</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -4689,22 +4759,22 @@
         <v>860</v>
       </c>
       <c r="S9" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T9" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="U9" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="V9" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="W9">
         <v>0.86009640728895598</v>
       </c>
       <c r="X9" t="s">
-        <v>1138</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -4757,22 +4827,22 @@
         <v>861</v>
       </c>
       <c r="S10" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T10" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="U10" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="V10" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="W10">
         <v>0.86740588044683753</v>
       </c>
       <c r="X10" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -4825,17 +4895,17 @@
         <v>862</v>
       </c>
       <c r="S11" t="s">
-        <v>927</v>
+        <v>1216</v>
       </c>
       <c r="T11"/>
       <c r="U11" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="W11">
         <v>0.83786520173202139</v>
       </c>
       <c r="X11" t="s">
-        <v>1085</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -4888,22 +4958,22 @@
         <v>863</v>
       </c>
       <c r="S12" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T12" t="s">
-        <v>1148</v>
+        <v>1124</v>
       </c>
       <c r="U12" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="V12" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="W12">
         <v>0.89461175804970805</v>
       </c>
       <c r="X12" t="s">
-        <v>1086</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -4956,20 +5026,20 @@
         <v>782</v>
       </c>
       <c r="S13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="T13"/>
       <c r="U13" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="V13" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="W13">
         <v>0.93854690611165115</v>
       </c>
       <c r="X13" t="s">
-        <v>1087</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -5025,22 +5095,22 @@
         <v>864</v>
       </c>
       <c r="S14" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="U14" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="V14" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="W14">
         <v>0.86797430299932365</v>
       </c>
       <c r="X14" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -5092,21 +5162,21 @@
       <c r="Q15" t="s">
         <v>784</v>
       </c>
-      <c r="S15" t="s">
-        <v>929</v>
+      <c r="S15">
+        <v>9</v>
       </c>
       <c r="T15"/>
       <c r="U15" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="V15" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="W15">
         <v>0.85920014562962055</v>
       </c>
       <c r="X15" t="s">
-        <v>1089</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
@@ -5159,17 +5229,17 @@
         <v>865</v>
       </c>
       <c r="S16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T16"/>
       <c r="U16" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="W16">
         <v>0.84120894460146256</v>
       </c>
       <c r="X16" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -5219,20 +5289,20 @@
         <v>786</v>
       </c>
       <c r="S17" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="T17"/>
       <c r="U17" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="V17" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="W17">
         <v>0.89343978548302638</v>
       </c>
       <c r="X17" t="s">
-        <v>1091</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
@@ -5273,31 +5343,31 @@
         <v>674</v>
       </c>
       <c r="P18" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="Q18" t="s">
-        <v>1163</v>
+        <v>1139</v>
       </c>
       <c r="R18" t="s">
-        <v>1164</v>
+        <v>1140</v>
       </c>
       <c r="S18" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T18" s="4">
         <v>11</v>
       </c>
       <c r="U18" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="V18" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="W18">
         <v>0.85149273739466735</v>
       </c>
       <c r="X18" t="s">
-        <v>1092</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
@@ -5341,31 +5411,31 @@
         <v>679</v>
       </c>
       <c r="P19" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="Q19" t="s">
-        <v>1165</v>
+        <v>1141</v>
       </c>
       <c r="R19" t="s">
-        <v>1166</v>
+        <v>1142</v>
       </c>
       <c r="S19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T19" s="4">
         <v>8</v>
       </c>
       <c r="U19" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="V19" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="W19">
         <v>0.85509712450433906</v>
       </c>
       <c r="X19" t="s">
-        <v>1093</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
@@ -5406,28 +5476,28 @@
         <v>656</v>
       </c>
       <c r="P20" t="s">
-        <v>1167</v>
+        <v>1143</v>
       </c>
       <c r="Q20" t="s">
-        <v>1168</v>
+        <v>1144</v>
       </c>
       <c r="R20" t="s">
-        <v>1169</v>
-      </c>
-      <c r="T20" s="8">
+        <v>1145</v>
+      </c>
+      <c r="T20" s="7">
         <v>12</v>
       </c>
       <c r="U20" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="V20" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="W20">
         <v>0.85353391314528848</v>
       </c>
       <c r="X20" t="s">
-        <v>1094</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
@@ -5468,28 +5538,28 @@
         <v>657</v>
       </c>
       <c r="P21" t="s">
-        <v>1170</v>
+        <v>1146</v>
       </c>
       <c r="Q21" t="s">
-        <v>1171</v>
+        <v>1147</v>
       </c>
       <c r="R21" t="s">
-        <v>1172</v>
-      </c>
-      <c r="T21" s="8">
+        <v>1148</v>
+      </c>
+      <c r="T21" s="7">
         <v>13</v>
       </c>
       <c r="U21" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="V21" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="W21">
         <v>0.84078383368728871</v>
       </c>
       <c r="X21" t="s">
-        <v>1095</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
@@ -5533,25 +5603,25 @@
         <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>1173</v>
+        <v>1149</v>
       </c>
       <c r="Q22" t="s">
-        <v>1174</v>
+        <v>1150</v>
       </c>
       <c r="R22" t="s">
-        <v>1175</v>
+        <v>1151</v>
       </c>
       <c r="U22" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="V22" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="W22">
         <v>0.87142162521149769</v>
       </c>
       <c r="X22" t="s">
-        <v>1096</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -5595,31 +5665,31 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>1176</v>
+        <v>1152</v>
       </c>
       <c r="Q23" t="s">
-        <v>1177</v>
+        <v>1153</v>
       </c>
       <c r="R23" t="s">
-        <v>1178</v>
-      </c>
-      <c r="S23" s="7">
+        <v>1154</v>
+      </c>
+      <c r="S23" s="4">
         <v>2</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>1179</v>
+        <v>1155</v>
       </c>
       <c r="U23" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
       <c r="V23" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
       <c r="W23">
         <v>0.88344938060971523</v>
       </c>
       <c r="X23" t="s">
-        <v>1097</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -5660,22 +5730,22 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1180</v>
+        <v>1156</v>
       </c>
       <c r="Q24" t="s">
-        <v>1181</v>
+        <v>1157</v>
       </c>
       <c r="R24" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
       <c r="U24" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="W24">
         <v>0.8446395497925514</v>
       </c>
       <c r="X24" t="s">
-        <v>1098</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
@@ -5728,17 +5798,17 @@
         <v>866</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T25"/>
       <c r="U25" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="W25">
         <v>0.87535260920629221</v>
       </c>
       <c r="X25" t="s">
-        <v>1139</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -5789,16 +5859,16 @@
       </c>
       <c r="S26" s="5"/>
       <c r="U26" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="V26" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="W26">
         <v>0.8732287837507936</v>
       </c>
       <c r="X26" t="s">
-        <v>1099</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -5842,25 +5912,25 @@
         <v>684</v>
       </c>
       <c r="P27" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="Q27" t="s">
-        <v>1184</v>
+        <v>1160</v>
       </c>
       <c r="R27" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="U27" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="V27" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="W27">
         <v>0.87968750461068712</v>
       </c>
       <c r="X27" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
@@ -5913,19 +5983,19 @@
         <v>867</v>
       </c>
       <c r="S28" t="s">
-        <v>932</v>
+        <v>1225</v>
       </c>
       <c r="T28" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="U28" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="W28">
         <v>0.85736774228241408</v>
       </c>
       <c r="X28" t="s">
-        <v>1100</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
@@ -5978,22 +6048,22 @@
         <v>868</v>
       </c>
       <c r="S29" t="s">
-        <v>921</v>
+        <v>1215</v>
       </c>
       <c r="T29" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="U29" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="V29" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="W29">
         <v>0.9277910882093463</v>
       </c>
       <c r="X29" t="s">
-        <v>1159</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
@@ -6046,19 +6116,19 @@
         <v>869</v>
       </c>
       <c r="S30" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="T30" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="U30" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="W30">
         <v>0.84801246604370373</v>
       </c>
       <c r="X30" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -6099,19 +6169,19 @@
         <v>660</v>
       </c>
       <c r="Q31" t="s">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="U31" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="V31" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="W31">
         <v>0.86738108279423032</v>
       </c>
       <c r="X31" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
@@ -6152,19 +6222,19 @@
         <v>680</v>
       </c>
       <c r="Q32" t="s">
-        <v>1187</v>
+        <v>1163</v>
       </c>
       <c r="U32" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
       <c r="V32" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
       <c r="W32">
         <v>0.85982606057436883</v>
       </c>
       <c r="X32" t="s">
-        <v>1101</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
@@ -6217,22 +6287,22 @@
         <v>870</v>
       </c>
       <c r="S33" t="s">
-        <v>934</v>
+        <v>1226</v>
       </c>
       <c r="T33" t="s">
-        <v>1148</v>
+        <v>1124</v>
       </c>
       <c r="U33" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="V33" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="W33">
         <v>0.9002576955306274</v>
       </c>
       <c r="X33" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -6291,22 +6361,22 @@
         <v>871</v>
       </c>
       <c r="S34" t="s">
-        <v>935</v>
+        <v>1227</v>
       </c>
       <c r="T34" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="U34" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="V34" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="W34">
         <v>0.85252107754076434</v>
       </c>
       <c r="X34" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
@@ -6359,22 +6429,22 @@
         <v>872</v>
       </c>
       <c r="S35" t="s">
-        <v>932</v>
+        <v>1225</v>
       </c>
       <c r="T35" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="U35" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="V35" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="W35">
         <v>0.85602289131399734</v>
       </c>
       <c r="X35" t="s">
-        <v>1140</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
@@ -6427,22 +6497,22 @@
         <v>873</v>
       </c>
       <c r="S36" t="s">
-        <v>936</v>
+        <v>1228</v>
       </c>
       <c r="T36" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="U36" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="V36" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="W36">
         <v>0.8371161193327491</v>
       </c>
       <c r="X36" t="s">
-        <v>1102</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
@@ -6497,21 +6567,21 @@
       <c r="R37" t="s">
         <v>874</v>
       </c>
-      <c r="S37" t="s">
-        <v>929</v>
+      <c r="S37">
+        <v>9</v>
       </c>
       <c r="T37"/>
       <c r="U37" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="V37" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="W37">
         <v>0.90121316909839955</v>
       </c>
       <c r="X37" t="s">
-        <v>1141</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
@@ -6563,20 +6633,20 @@
       <c r="R38" t="s">
         <v>875</v>
       </c>
-      <c r="S38" t="s">
-        <v>929</v>
+      <c r="S38">
+        <v>9</v>
       </c>
       <c r="T38" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="U38" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="W38">
         <v>0.82357986602099664</v>
       </c>
       <c r="X38" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -6632,22 +6702,22 @@
         <v>876</v>
       </c>
       <c r="S39" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T39" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="U39" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="V39" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="W39">
         <v>0.84728974575544147</v>
       </c>
       <c r="X39" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
@@ -6696,20 +6766,20 @@
       <c r="R40" t="s">
         <v>877</v>
       </c>
-      <c r="S40" t="s">
-        <v>931</v>
+      <c r="S40">
+        <v>6</v>
       </c>
       <c r="T40" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="U40" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="W40">
         <v>0.8267176997224317</v>
       </c>
       <c r="X40" t="s">
-        <v>1103</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -6762,22 +6832,22 @@
         <v>878</v>
       </c>
       <c r="S41" t="s">
-        <v>937</v>
+        <v>1229</v>
       </c>
       <c r="T41" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="U41" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="V41" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="W41">
         <v>0.82977486198610395</v>
       </c>
       <c r="X41" t="s">
-        <v>1104</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
@@ -6830,22 +6900,22 @@
         <v>879</v>
       </c>
       <c r="S42" t="s">
-        <v>937</v>
+        <v>1229</v>
       </c>
       <c r="T42" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="U42" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="V42" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="W42">
         <v>0.86601024105024849</v>
       </c>
       <c r="X42" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
@@ -6901,22 +6971,22 @@
         <v>880</v>
       </c>
       <c r="S43" t="s">
-        <v>938</v>
+        <v>1230</v>
       </c>
       <c r="T43" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="U43" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="V43" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="W43">
         <v>0.93156838051257063</v>
       </c>
       <c r="X43" t="s">
-        <v>1142</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
@@ -6969,19 +7039,19 @@
         <v>881</v>
       </c>
       <c r="S44" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T44" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="U44" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="W44">
         <v>0.85523196714151128</v>
       </c>
       <c r="X44" t="s">
-        <v>1105</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -7034,19 +7104,19 @@
         <v>882</v>
       </c>
       <c r="S45" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T45" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="U45" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="W45">
         <v>0.86831991844949252</v>
       </c>
       <c r="X45" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -7099,20 +7169,20 @@
         <v>883</v>
       </c>
       <c r="S46" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T46"/>
       <c r="U46" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="V46" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="W46">
         <v>0.86265213633641435</v>
       </c>
       <c r="X46" t="s">
-        <v>1149</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
@@ -7156,22 +7226,22 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>1188</v>
+        <v>1164</v>
       </c>
       <c r="Q47" t="s">
-        <v>1189</v>
+        <v>1165</v>
       </c>
       <c r="R47" t="s">
-        <v>1190</v>
+        <v>1166</v>
       </c>
       <c r="U47" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="W47">
         <v>0.89532482391083634</v>
       </c>
       <c r="X47" t="s">
-        <v>1106</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
@@ -7224,22 +7294,22 @@
         <v>884</v>
       </c>
       <c r="S48" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T48" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="U48" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
       <c r="V48" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
       <c r="W48">
         <v>0.88659174787851425</v>
       </c>
       <c r="X48" t="s">
-        <v>1150</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
@@ -7292,19 +7362,19 @@
         <v>885</v>
       </c>
       <c r="S49" t="s">
-        <v>936</v>
+        <v>1228</v>
       </c>
       <c r="T49" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="U49" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="W49">
         <v>0.86882850729824324</v>
       </c>
       <c r="X49" t="s">
-        <v>1107</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
@@ -7356,23 +7426,23 @@
       <c r="R50" t="s">
         <v>886</v>
       </c>
-      <c r="S50" t="s">
-        <v>939</v>
+      <c r="S50">
+        <v>7</v>
       </c>
       <c r="T50" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="U50" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="V50" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="W50">
         <v>0.86904312265270467</v>
       </c>
       <c r="X50" t="s">
-        <v>1143</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -7427,21 +7497,21 @@
       <c r="R51" t="s">
         <v>887</v>
       </c>
-      <c r="S51" t="s">
-        <v>939</v>
+      <c r="S51">
+        <v>7</v>
       </c>
       <c r="T51"/>
       <c r="U51" t="s">
-        <v>1016</v>
+        <v>993</v>
       </c>
       <c r="V51" t="s">
-        <v>1016</v>
+        <v>993</v>
       </c>
       <c r="W51">
         <v>0.90921755488316625</v>
       </c>
       <c r="X51" t="s">
-        <v>1108</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
@@ -7494,22 +7564,22 @@
         <v>888</v>
       </c>
       <c r="S52" t="s">
-        <v>932</v>
+        <v>1225</v>
       </c>
       <c r="T52" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="U52" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="V52" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="W52">
         <v>0.87708956782974701</v>
       </c>
       <c r="X52" t="s">
-        <v>1109</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
@@ -7565,22 +7635,22 @@
         <v>889</v>
       </c>
       <c r="S53" t="s">
-        <v>940</v>
+        <v>1211</v>
       </c>
       <c r="T53" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U53" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="V53" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="W53">
         <v>0.89039235847325926</v>
       </c>
       <c r="X53" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
@@ -7636,22 +7706,22 @@
         <v>890</v>
       </c>
       <c r="S54" t="s">
-        <v>941</v>
+        <v>1220</v>
       </c>
       <c r="T54" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="U54" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="V54" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="W54">
         <v>0.86210315001266136</v>
       </c>
       <c r="X54" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
@@ -7692,25 +7762,25 @@
         <v>11</v>
       </c>
       <c r="P55" t="s">
-        <v>1191</v>
+        <v>1167</v>
       </c>
       <c r="Q55" t="s">
-        <v>1192</v>
+        <v>1168</v>
       </c>
       <c r="R55" t="s">
-        <v>1193</v>
+        <v>1169</v>
       </c>
       <c r="U55" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="V55" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="W55">
         <v>0.85369527591339112</v>
       </c>
       <c r="X55" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
@@ -7754,22 +7824,22 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>1194</v>
+        <v>1170</v>
       </c>
       <c r="Q56" t="s">
-        <v>1195</v>
+        <v>1171</v>
       </c>
       <c r="R56" t="s">
-        <v>1196</v>
+        <v>1172</v>
       </c>
       <c r="U56" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="W56">
         <v>0.84037176075830444</v>
       </c>
       <c r="X56" t="s">
-        <v>1111</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
@@ -7829,16 +7899,16 @@
       </c>
       <c r="T57"/>
       <c r="U57" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
       <c r="V57" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
       <c r="W57">
         <v>0.88497591258242148</v>
       </c>
       <c r="X57" t="s">
-        <v>1144</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
@@ -7894,20 +7964,20 @@
         <v>891</v>
       </c>
       <c r="S58" t="s">
-        <v>937</v>
+        <v>1229</v>
       </c>
       <c r="T58"/>
       <c r="U58" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="V58" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="W58">
         <v>0.88907933654536964</v>
       </c>
       <c r="X58" t="s">
-        <v>1145</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
@@ -7960,22 +8030,22 @@
         <v>892</v>
       </c>
       <c r="S59" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T59" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="U59" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="V59" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="W59">
         <v>0.87662543370271007</v>
       </c>
       <c r="X59" t="s">
-        <v>1112</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
@@ -8031,19 +8101,19 @@
         <v>893</v>
       </c>
       <c r="S60" t="s">
-        <v>943</v>
+        <v>1212</v>
       </c>
       <c r="T60" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="U60" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="W60">
         <v>0.86489924927873296</v>
       </c>
       <c r="X60" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
@@ -8099,22 +8169,22 @@
         <v>894</v>
       </c>
       <c r="S61" t="s">
-        <v>944</v>
+        <v>1223</v>
       </c>
       <c r="T61" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U61" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="V61" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="W61">
         <v>0.94902426132564488</v>
       </c>
       <c r="X61" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
@@ -8155,31 +8225,31 @@
         <v>667</v>
       </c>
       <c r="P62" t="s">
-        <v>1197</v>
+        <v>1173</v>
       </c>
       <c r="Q62" t="s">
-        <v>1198</v>
+        <v>1174</v>
       </c>
       <c r="R62" t="s">
-        <v>1199</v>
+        <v>1175</v>
       </c>
       <c r="S62" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T62" s="4">
         <v>5</v>
       </c>
       <c r="U62" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="V62" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="W62">
         <v>0.86298803365362753</v>
       </c>
       <c r="X62" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
@@ -8235,22 +8305,22 @@
         <v>895</v>
       </c>
       <c r="S63" t="s">
-        <v>945</v>
+        <v>1213</v>
       </c>
       <c r="T63" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U63" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="V63" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="W63">
         <v>0.90904781735893392</v>
       </c>
       <c r="X63" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
@@ -8303,20 +8373,20 @@
         <v>896</v>
       </c>
       <c r="S64" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="T64"/>
       <c r="U64" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="V64" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="W64">
         <v>0.87064146775365325</v>
       </c>
       <c r="X64" t="s">
-        <v>1113</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
@@ -8369,20 +8439,20 @@
         <v>897</v>
       </c>
       <c r="S65" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="T65"/>
       <c r="U65" t="s">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="V65" t="s">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="W65">
         <v>0.92973941913945879</v>
       </c>
       <c r="X65" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
@@ -8435,20 +8505,20 @@
         <v>897</v>
       </c>
       <c r="S66" t="s">
-        <v>947</v>
+        <v>1221</v>
       </c>
       <c r="T66"/>
       <c r="U66" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="V66" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="W66">
         <v>0.94301130793162835</v>
       </c>
       <c r="X66" t="s">
-        <v>1146</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
@@ -8501,20 +8571,20 @@
         <v>897</v>
       </c>
       <c r="S67" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T67"/>
       <c r="U67" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="V67" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="W67">
         <v>0.90673822264044035</v>
       </c>
       <c r="X67" t="s">
-        <v>1155</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
@@ -8567,20 +8637,20 @@
         <v>897</v>
       </c>
       <c r="S68" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="T68"/>
       <c r="U68" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="V68" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="W68">
         <v>0.88605647361915096</v>
       </c>
       <c r="X68" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
@@ -8636,17 +8706,17 @@
         <v>897</v>
       </c>
       <c r="S69" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="T69"/>
       <c r="U69" t="s">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="W69">
         <v>0.86757333263226011</v>
       </c>
       <c r="X69" t="s">
-        <v>1156</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
@@ -8702,17 +8772,17 @@
         <v>898</v>
       </c>
       <c r="S70" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="T70"/>
       <c r="U70" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="W70">
         <v>0.86711540602300585</v>
       </c>
       <c r="X70" t="s">
-        <v>1116</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
@@ -8768,22 +8838,22 @@
         <v>899</v>
       </c>
       <c r="S71" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="T71" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="U71" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="V71" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="W71">
         <v>0.89477981877687007</v>
       </c>
       <c r="X71" t="s">
-        <v>1117</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
@@ -8836,19 +8906,19 @@
         <v>899</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>1200</v>
+        <v>1176</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>1203</v>
+        <v>1179</v>
       </c>
       <c r="U72" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="W72">
         <v>0.86034518987394926</v>
       </c>
       <c r="X72" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
@@ -8901,20 +8971,20 @@
         <v>900</v>
       </c>
       <c r="S73" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="T73"/>
       <c r="U73" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="V73" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="W73">
         <v>0.8721072326998538</v>
       </c>
       <c r="X73" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
@@ -8970,20 +9040,20 @@
         <v>900</v>
       </c>
       <c r="S74" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="T74"/>
       <c r="U74" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="V74" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="W74">
         <v>0.90184769936238185</v>
       </c>
       <c r="X74" t="s">
-        <v>1119</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
@@ -9036,20 +9106,20 @@
         <v>900</v>
       </c>
       <c r="S75" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="T75"/>
       <c r="U75" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="V75" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="W75">
         <v>0.88534106560532111</v>
       </c>
       <c r="X75" t="s">
-        <v>1151</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
@@ -9105,22 +9175,22 @@
         <v>901</v>
       </c>
       <c r="S76" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="T76" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="U76" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="V76" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="W76">
         <v>0.88355956583615192</v>
       </c>
       <c r="X76" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
@@ -9176,17 +9246,17 @@
         <v>896</v>
       </c>
       <c r="S77" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="T77"/>
       <c r="U77" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="W77">
         <v>0.84490137054288816</v>
       </c>
       <c r="X77" t="s">
-        <v>1153</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
@@ -9239,17 +9309,17 @@
         <v>896</v>
       </c>
       <c r="S78" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="T78"/>
       <c r="U78" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="W78">
         <v>0.87016055672956072</v>
       </c>
       <c r="X78" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
@@ -9302,17 +9372,17 @@
         <v>896</v>
       </c>
       <c r="S79" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="T79"/>
       <c r="U79" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="W79">
         <v>0.87816872795729484</v>
       </c>
       <c r="X79" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.3">
@@ -9368,22 +9438,22 @@
         <v>902</v>
       </c>
       <c r="S80" t="s">
-        <v>951</v>
+        <v>1222</v>
       </c>
       <c r="T80" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="U80" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="V80" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="W80">
         <v>0.88502820832355322</v>
       </c>
       <c r="X80" t="s">
-        <v>1152</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
@@ -9439,22 +9509,22 @@
         <v>903</v>
       </c>
       <c r="S81" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="T81" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="U81" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="V81" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="W81">
         <v>0.8688955114130873</v>
       </c>
       <c r="X81" t="s">
-        <v>1154</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
@@ -9510,19 +9580,19 @@
         <v>904</v>
       </c>
       <c r="S82" t="s">
-        <v>927</v>
+        <v>1216</v>
       </c>
       <c r="T82" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="U82" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="W82">
         <v>0.86594623087479827</v>
       </c>
       <c r="X82" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
@@ -9575,19 +9645,19 @@
         <v>905</v>
       </c>
       <c r="S83" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T83" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="U83" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="W83">
         <v>0.81339292724623979</v>
       </c>
       <c r="X83" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.3">
@@ -9643,22 +9713,22 @@
         <v>906</v>
       </c>
       <c r="S84" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T84" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="U84" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="V84" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="W84">
         <v>0.86223131872427117</v>
       </c>
       <c r="X84" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
@@ -9711,19 +9781,19 @@
         <v>907</v>
       </c>
       <c r="S85" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T85" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="U85" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="W85">
         <v>0.87888858936638981</v>
       </c>
       <c r="X85" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
@@ -9779,19 +9849,19 @@
         <v>908</v>
       </c>
       <c r="S86" t="s">
-        <v>921</v>
+        <v>1215</v>
       </c>
       <c r="T86" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="U86" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="W86">
         <v>0.8396916471420639</v>
       </c>
       <c r="X86" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
@@ -9844,22 +9914,22 @@
         <v>909</v>
       </c>
       <c r="S87" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T87" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="U87" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="V87" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="W87">
         <v>0.84251162879144137</v>
       </c>
       <c r="X87" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
@@ -9912,22 +9982,22 @@
         <v>910</v>
       </c>
       <c r="S88" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T88" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="U88" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="V88" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="W88">
         <v>0.84668374968055227</v>
       </c>
       <c r="X88" t="s">
-        <v>1147</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
@@ -9980,22 +10050,22 @@
         <v>911</v>
       </c>
       <c r="S89" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T89" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="U89" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="V89" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="W89">
         <v>0.84966969146987359</v>
       </c>
       <c r="X89" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
@@ -10048,19 +10118,19 @@
         <v>912</v>
       </c>
       <c r="S90" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T90" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="U90" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="W90">
         <v>0.83775990728275029</v>
       </c>
       <c r="X90" t="s">
-        <v>1069</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
@@ -10113,22 +10183,22 @@
         <v>909</v>
       </c>
       <c r="S91" t="s">
-        <v>932</v>
+        <v>1225</v>
       </c>
       <c r="T91" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="U91" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="V91" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="W91">
         <v>0.8367307064921915</v>
       </c>
       <c r="X91" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
@@ -10178,19 +10248,19 @@
         <v>913</v>
       </c>
       <c r="S92" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="T92" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="U92" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="W92">
         <v>0.85310016097036412</v>
       </c>
       <c r="X92" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
@@ -10234,10 +10304,10 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>1201</v>
+        <v>1177</v>
       </c>
       <c r="Q93" t="s">
-        <v>1202</v>
+        <v>1178</v>
       </c>
       <c r="R93" t="s">
         <v>913</v>
@@ -10246,16 +10316,16 @@
         <v>2</v>
       </c>
       <c r="U93" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="V93" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="W93">
         <v>0.85107098575662232</v>
       </c>
       <c r="X93" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
@@ -10296,10 +10366,10 @@
         <v>3</v>
       </c>
       <c r="P94" t="s">
-        <v>1204</v>
+        <v>1180</v>
       </c>
       <c r="Q94" t="s">
-        <v>1205</v>
+        <v>1181</v>
       </c>
       <c r="R94" t="s">
         <v>913</v>
@@ -10308,13 +10378,13 @@
         <v>2</v>
       </c>
       <c r="U94" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="W94">
         <v>0.82751032563396465</v>
       </c>
       <c r="X94" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
@@ -10367,19 +10437,19 @@
         <v>914</v>
       </c>
       <c r="S95" t="s">
+        <v>1217</v>
+      </c>
+      <c r="T95" t="s">
         <v>928</v>
       </c>
-      <c r="T95" t="s">
-        <v>942</v>
-      </c>
       <c r="U95" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="W95">
         <v>0.85144162182604421</v>
       </c>
       <c r="X95" t="s">
-        <v>1128</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
@@ -10420,16 +10490,16 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>1206</v>
+        <v>1182</v>
       </c>
       <c r="U96" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="W96">
         <v>0.82645890391905119</v>
       </c>
       <c r="X96" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
@@ -10479,19 +10549,19 @@
         <v>913</v>
       </c>
       <c r="S97" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T97" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="U97" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="W97">
         <v>0.84193598720799889</v>
       </c>
       <c r="X97" t="s">
-        <v>1130</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
@@ -10541,19 +10611,19 @@
         <v>915</v>
       </c>
       <c r="S98" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="T98" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="U98" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="W98">
         <v>0.8358919360215723</v>
       </c>
       <c r="X98" t="s">
-        <v>1131</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
@@ -10606,19 +10676,19 @@
         <v>916</v>
       </c>
       <c r="S99" t="s">
-        <v>952</v>
+        <v>1231</v>
       </c>
       <c r="T99" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="U99" t="s">
-        <v>1038</v>
+        <v>1015</v>
       </c>
       <c r="W99">
         <v>0.83563069241524524</v>
       </c>
       <c r="X99" t="s">
-        <v>1132</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.3">
@@ -10671,19 +10741,19 @@
         <v>917</v>
       </c>
       <c r="S100" t="s">
-        <v>953</v>
+        <v>1218</v>
       </c>
       <c r="T100" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U100" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="W100">
         <v>0.84078330381715249</v>
       </c>
       <c r="X100" t="s">
-        <v>1071</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.3">
@@ -10742,22 +10812,22 @@
         <v>917</v>
       </c>
       <c r="S101" t="s">
-        <v>954</v>
+        <v>1214</v>
       </c>
       <c r="T101" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U101" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="V101" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="W101">
         <v>0.86514126447103135</v>
       </c>
       <c r="X101" t="s">
-        <v>1133</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
@@ -10807,17 +10877,17 @@
         <v>848</v>
       </c>
       <c r="S102" t="s">
-        <v>940</v>
+        <v>1211</v>
       </c>
       <c r="T102"/>
       <c r="U102" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="W102">
         <v>0.82888214666881355</v>
       </c>
       <c r="X102" t="s">
-        <v>1134</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
@@ -10870,22 +10940,22 @@
         <v>917</v>
       </c>
       <c r="S103" t="s">
-        <v>954</v>
+        <v>1214</v>
       </c>
       <c r="T103" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U103" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="V103" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="W103">
         <v>0.8616388108833356</v>
       </c>
       <c r="X103" t="s">
-        <v>1072</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
@@ -10938,22 +11008,22 @@
         <v>917</v>
       </c>
       <c r="S104" t="s">
-        <v>955</v>
+        <v>1219</v>
       </c>
       <c r="T104" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="U104" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="V104" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="W104">
         <v>0.91614205947794114</v>
       </c>
       <c r="X104" t="s">
-        <v>1073</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.3">
@@ -11009,22 +11079,22 @@
         <v>918</v>
       </c>
       <c r="S105" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T105" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="U105" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
       <c r="V105" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
       <c r="W105">
         <v>0.84464152370419909</v>
       </c>
       <c r="X105" t="s">
-        <v>1135</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.3">
@@ -11080,22 +11150,22 @@
         <v>919</v>
       </c>
       <c r="S106" t="s">
-        <v>955</v>
+        <v>1219</v>
       </c>
       <c r="T106" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
       <c r="U106" t="s">
-        <v>1043</v>
+        <v>1020</v>
       </c>
       <c r="V106" t="s">
-        <v>1043</v>
+        <v>1020</v>
       </c>
       <c r="W106">
         <v>0.93424106443595123</v>
       </c>
       <c r="X106" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.3">
@@ -11151,19 +11221,19 @@
         <v>920</v>
       </c>
       <c r="S107" t="s">
+        <v>1215</v>
+      </c>
+      <c r="T107" t="s">
         <v>921</v>
       </c>
-      <c r="T107" t="s">
-        <v>922</v>
-      </c>
       <c r="U107" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="W107">
         <v>0.85012399172901187</v>
       </c>
       <c r="X107" t="s">
-        <v>1075</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.3">
@@ -11207,20 +11277,20 @@
         <v>770</v>
       </c>
       <c r="S108" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T108"/>
       <c r="U108" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="V108" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="W108">
         <v>0.86757477664693838</v>
       </c>
       <c r="X108" t="s">
-        <v>1136</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.3">
@@ -11267,20 +11337,20 @@
         <v>853</v>
       </c>
       <c r="S109" t="s">
-        <v>928</v>
+        <v>1217</v>
       </c>
       <c r="T109"/>
       <c r="U109" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="V109" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="W109">
         <v>0.83118775469297135</v>
       </c>
       <c r="X109" t="s">
-        <v>1076</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.3">
@@ -11324,25 +11394,25 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>1207</v>
+        <v>1183</v>
       </c>
       <c r="Q110" t="s">
-        <v>1208</v>
+        <v>1184</v>
       </c>
       <c r="R110" t="s">
-        <v>1209</v>
+        <v>1185</v>
       </c>
       <c r="S110" s="4">
         <v>1</v>
       </c>
       <c r="U110" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="W110">
         <v>0.82820279946113706</v>
       </c>
       <c r="X110" t="s">
-        <v>1077</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.3">
@@ -11386,28 +11456,28 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>1210</v>
+        <v>1186</v>
       </c>
       <c r="Q111" t="s">
-        <v>1211</v>
+        <v>1187</v>
       </c>
       <c r="R111" t="s">
-        <v>1212</v>
+        <v>1188</v>
       </c>
       <c r="S111" s="4" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="U111" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="V111" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="W111">
         <v>0.88878722260809917</v>
       </c>
       <c r="X111" t="s">
-        <v>1160</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.3">
@@ -11448,28 +11518,28 @@
         <v>654</v>
       </c>
       <c r="P112" t="s">
-        <v>1213</v>
+        <v>1189</v>
       </c>
       <c r="Q112" t="s">
-        <v>1211</v>
+        <v>1187</v>
       </c>
       <c r="R112" t="s">
-        <v>1214</v>
+        <v>1190</v>
       </c>
       <c r="S112" s="4">
         <v>1</v>
       </c>
       <c r="U112" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="V112" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="W112">
         <v>0.85161289751050151</v>
       </c>
       <c r="X112" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.3">
@@ -11510,26 +11580,26 @@
         <v>10</v>
       </c>
       <c r="P113" t="s">
-        <v>1215</v>
+        <v>1191</v>
       </c>
       <c r="Q113" t="s">
-        <v>1211</v>
+        <v>1187</v>
       </c>
       <c r="R113" t="s">
-        <v>1216</v>
+        <v>1192</v>
       </c>
       <c r="T113" s="5"/>
       <c r="U113" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
       <c r="V113" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
       <c r="W113">
         <v>0.85114147944448559</v>
       </c>
       <c r="X113" t="s">
-        <v>1161</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.3">
@@ -11541,4 +11611,225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAA26E8-5386-44F5-B80E-81CA6F9A9714}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="str">
+        <f>+B3</f>
+        <v>Crecimiento económico bajo, volátil, excluyente y no sostenible con baja creación de empleo formal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="str">
+        <f>+B4</f>
+        <v>Elevada desigualdad y baja movilidad y cohesión social</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="str">
+        <f>+B5</f>
+        <v>Brechas de protección social</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="str">
+        <f>+B6</f>
+        <v>Sistemas educativos y formación profesional débiles</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f>+B8</f>
+        <v>Desarrollo ambientalmente no sostenible y cambio climático</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>758</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f>+B9</f>
+        <v>Brecha digital</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f>+B10</f>
+        <v>Flujos migratorios intrarregionales crecientes en cantidad y diversidad</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f>+B11</f>
+        <v>Insuficiente integración económica regional</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>697</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f>+B7</f>
+        <v>Alta desigualdad de género</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>695</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="str">
+        <f>+B12</f>
+        <v>Espacios fiscales limitados y altos costos de financiamiento</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>